--- a/جافا اسكريبت.xlsx
+++ b/جافا اسكريبت.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3f5af62c6a6f1dd/المستندات/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="8_{9A30210F-86E9-4C37-85FA-5A385961679A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F23D9A-2C08-4D7E-B010-FB065B06DB81}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="8_{9A30210F-86E9-4C37-85FA-5A385961679A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47281D72-7125-4CF5-9E19-B8BAF8790D4B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8EB8308E-3B28-4848-ABF7-FADC5ACB5497}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>الكود</t>
   </si>
@@ -53,9 +53,6 @@
     <t>document</t>
   </si>
   <si>
-    <t>الكونسل حق أدوات المطور في الصفحه</t>
-  </si>
-  <si>
     <t>console.log()</t>
   </si>
   <si>
@@ -75,15 +72,6 @@
   </si>
   <si>
     <t>لاظهار أي شي في خيارات المطور في الصفحه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الفاريبول Variables </t>
-  </si>
-  <si>
-    <t xml:space="preserve">const </t>
-  </si>
-  <si>
-    <t>let</t>
   </si>
   <si>
     <t>لاظهار نوع الداته في الكونسل</t>
@@ -115,31 +103,12 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">تغيير لاستايل  html </t>
-  </si>
-  <si>
-    <t>.style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لتغيير الاستايل </t>
-  </si>
-  <si>
-    <t>const fahad= document.getElementById("aaa")
-fahad.style.backgroundColor="red"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لتغيير الاستايل  واخترنا اللون </t>
-  </si>
-  <si>
     <t>وتستدعي هذا العنصر الموجود في html
 &lt;!DOCTYPE html&gt;
 وتعني يا مستند</t>
   </si>
   <si>
     <t>يا مستند احضار العنصر عن طريق الاي دي</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Element</t>
   </si>
   <si>
     <t xml:space="preserve">style </t>
@@ -181,9 +150,6 @@
   </si>
   <si>
     <t>.remove()</t>
-  </si>
-  <si>
-    <t>وهي العناصر التي تكون الدوكيمنت</t>
   </si>
   <si>
     <t>createElement("h1")</t>
@@ -247,18 +213,6 @@
     </r>
   </si>
   <si>
-    <t>الدرس41</t>
-  </si>
-  <si>
-    <t>الدقيقة 8.42</t>
-  </si>
-  <si>
-    <t>createElement()</t>
-  </si>
-  <si>
-    <t>innerText="   "</t>
-  </si>
-  <si>
     <t>const bb = document.createElement("h1")
 لاضافة عنصر html
 bb.innerText="fahad"
@@ -279,9 +233,6 @@
     <t>لوضع كلاس css</t>
   </si>
   <si>
-    <t>classList.add()</t>
-  </si>
-  <si>
     <t>https://www.w3schools.com/jsref/default.asp</t>
   </si>
   <si>
@@ -294,19 +245,114 @@
     <t>أنواع البينات في الجافا اسكريبت</t>
   </si>
   <si>
-    <t>unction fahad() {document.getElementById
+    <t xml:space="preserve">function </t>
+  </si>
+  <si>
+    <t>الفونكشن 
+ويتم استدعائه عن طريق ذكر اسمه وقوس</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>function fahad() {document.getElementById
 ("aaa").classList.add("mystyle")}
 fahad()</t>
   </si>
   <si>
-    <t xml:space="preserve">function </t>
-  </si>
-  <si>
-    <t>الفونكشن 
-ويتم استدعائه عن طريق ذكر اسمه وقوس</t>
-  </si>
-  <si>
-    <t>الدرس 5</t>
+    <t>fahad()</t>
+  </si>
+  <si>
+    <t>طريقة استدعاء الفونكشن بذكر اسم الفونكشن</t>
+  </si>
+  <si>
+    <t>function fahad ()
+{document.getElementById("aaa").classList.add("mystyle")}
+setTimeout(fahad,8000)</t>
+  </si>
+  <si>
+    <t>تشغيل الفونكشن بعد عدد معين</t>
+  </si>
+  <si>
+    <t>const ff=()=&gt;{
+    document.getElementById("aaa").classList.add("mystyle")
+}</t>
+  </si>
+  <si>
+    <t>طريقة أخرى في الاستدعاء والكتابة</t>
+  </si>
+  <si>
+    <t>JavaScript (ES6) code snippets</t>
+  </si>
+  <si>
+    <t>تنزل البرنامج داخل استديو كود علشان اختصارات الجافا</t>
+  </si>
+  <si>
+    <t>nfn</t>
+  </si>
+  <si>
+    <t>اختصار لصناعة الفونكشن بسرعه</t>
+  </si>
+  <si>
+    <t>الكونسل حق أدوات المطور في الصفحه  console</t>
+  </si>
+  <si>
+    <t>Window النافذه</t>
+  </si>
+  <si>
+    <t>setTimeout(ff,5000)</t>
+  </si>
+  <si>
+    <t>Events الحدث</t>
+  </si>
+  <si>
+    <t>click الضغط</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/jsref/dom_obj_event.asp</t>
+  </si>
+  <si>
+    <t>كل الميثود والبرمتر حق الحدث</t>
+  </si>
+  <si>
+    <t xml:space="preserve">عناصر الوكمونت     Element  </t>
+  </si>
+  <si>
+    <t>.createElement()</t>
+  </si>
+  <si>
+    <t>.innerText="   "</t>
+  </si>
+  <si>
+    <t>.classList.add()</t>
+  </si>
+  <si>
+    <t>addEventListener()</t>
+  </si>
+  <si>
+    <t>للاستماع لوقوع حدث مثل الضغط وغيرها</t>
+  </si>
+  <si>
+    <t>document.getElementById("gg").addEventListener("click",ff)</t>
+  </si>
+  <si>
+    <t>للاستماع للحدث 
+والحدث أنواع كثيره</t>
+  </si>
+  <si>
+    <t>addEventListener(" click" ,هنا تضع الفونكشن فقط )</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/jsref/dom_obj_all.asp</t>
+  </si>
+  <si>
+    <t>الموقع الرسمي</t>
+  </si>
+  <si>
+    <t>الدقيقة 7</t>
+  </si>
+  <si>
+    <t>الدرس 7.4</t>
   </si>
 </sst>
 </file>
@@ -401,16 +447,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -732,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E69990-3F58-4E2D-B7BA-5E7B0CA76850}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -756,13 +802,12 @@
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="7"/>
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -773,134 +818,139 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="42" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="126" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="126" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
+      <c r="A23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="84" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="84" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -918,144 +968,205 @@
       <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
+      <c r="A34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+    </row>
+    <row r="46" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A52" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>40</v>
+      <c r="A58" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A41:C41"/>
+  <mergeCells count="9">
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A52:C52"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{339EABF4-5C2E-4403-871A-3FF841908A2E}"/>
+    <hyperlink ref="A59" r:id="rId2" xr:uid="{0C75871E-93F6-4C28-AC5D-5E67E8F8F25C}"/>
+    <hyperlink ref="A24" r:id="rId3" xr:uid="{4F4EBA72-C95C-4515-A5A5-59161B7B6996}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>